--- a/ResultadoEleicoesDistritos/PORTO_VILA DO CONDE.xlsx
+++ b/ResultadoEleicoesDistritos/PORTO_VILA DO CONDE.xlsx
@@ -597,64 +597,64 @@
         <v>21659</v>
       </c>
       <c r="H2" t="n">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="I2" t="n">
-        <v>2185</v>
+        <v>2162</v>
       </c>
       <c r="J2" t="n">
-        <v>8727</v>
+        <v>8932</v>
       </c>
       <c r="K2" t="n">
         <v>51</v>
       </c>
       <c r="L2" t="n">
-        <v>2479</v>
+        <v>2448</v>
       </c>
       <c r="M2" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N2" t="n">
-        <v>1635</v>
+        <v>1584</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R2" t="n">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="S2" t="n">
-        <v>974</v>
+        <v>928</v>
       </c>
       <c r="T2" t="n">
-        <v>1509</v>
+        <v>1588</v>
       </c>
       <c r="U2" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="V2" t="n">
-        <v>13961</v>
+        <v>13895</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X2" t="n">
-        <v>13826</v>
+        <v>13788</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AA2" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
